--- a/Lab2/LAB2.xlsx
+++ b/Lab2/LAB2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\andra\Downloads\UCDavis\ECS\ECS_154b\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{8CBF03B1-748B-4663-8A08-EB1E83AB0B1B}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{525A88D0-956D-4889-88F4-FDB038482C92}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9072" xr2:uid="{057425EB-9C6E-4ACF-AC87-0BCC28EF0ADA}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="81">
   <si>
     <t>Instruction</t>
   </si>
@@ -115,6 +115,9 @@
   </si>
   <si>
     <t>000010</t>
+  </si>
+  <si>
+    <t>Column1</t>
   </si>
   <si>
     <t>ALUOP</t>
@@ -252,6 +255,24 @@
   </si>
   <si>
     <t>101</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>000011</t>
+  </si>
+  <si>
+    <t>001001</t>
+  </si>
+  <si>
+    <t>jal</t>
+  </si>
+  <si>
+    <t>jr</t>
   </si>
 </sst>
 </file>
@@ -333,32 +354,12 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="8">
+  <dxfs count="9">
     <dxf>
       <numFmt numFmtId="30" formatCode="@"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right style="thick">
-          <color indexed="64"/>
-        </right>
-        <top/>
-        <bottom/>
-        <vertical/>
-        <horizontal/>
-      </border>
     </dxf>
     <dxf>
       <numFmt numFmtId="30" formatCode="@"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right style="thick">
-          <color indexed="64"/>
-        </right>
-        <top/>
-        <bottom/>
-        <vertical/>
-        <horizontal/>
-      </border>
     </dxf>
     <dxf>
       <numFmt numFmtId="30" formatCode="@"/>
@@ -378,9 +379,32 @@
     </dxf>
     <dxf>
       <numFmt numFmtId="30" formatCode="@"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right style="thick">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
     </dxf>
     <dxf>
       <numFmt numFmtId="30" formatCode="@"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right style="thick">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
     </dxf>
     <dxf>
       <numFmt numFmtId="30" formatCode="@"/>
@@ -402,16 +426,17 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{58487E53-EA2C-40B1-96F3-58ABA4410117}" name="Table1" displayName="Table1" ref="A12:G29" totalsRowShown="0" headerRowDxfId="6">
-  <autoFilter ref="A12:G29" xr:uid="{EDF3C63C-7444-4484-89AD-AB5F6D722D75}"/>
-  <tableColumns count="7">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{58487E53-EA2C-40B1-96F3-58ABA4410117}" name="Table1" displayName="Table1" ref="A12:H29" totalsRowShown="0" headerRowDxfId="8">
+  <autoFilter ref="A12:H29" xr:uid="{EDF3C63C-7444-4484-89AD-AB5F6D722D75}"/>
+  <tableColumns count="8">
     <tableColumn id="1" xr3:uid="{1DD59EE3-0F82-4187-ABE8-7AAC30B4C616}" name="Instruction _x000a_Opcode" dataDxfId="7"/>
-    <tableColumn id="2" xr3:uid="{ABF11DB0-E489-48E9-9EA9-D04DA4AF86FE}" name="ALUOP" dataDxfId="2"/>
+    <tableColumn id="2" xr3:uid="{ABF11DB0-E489-48E9-9EA9-D04DA4AF86FE}" name="ALUOP" dataDxfId="6"/>
     <tableColumn id="3" xr3:uid="{F4F1DFB3-2B1F-4087-8BBB-6BC49DD846F7}" name="Instruction_x000a_Operation" dataDxfId="5"/>
-    <tableColumn id="4" xr3:uid="{41AE9ADB-B78C-4F1D-837A-3E0A9181EA51}" name="Opcode" dataDxfId="1"/>
-    <tableColumn id="5" xr3:uid="{2AB80140-7D66-48FE-8612-E11F088FEB8D}" name="Function_x000a_Field" dataDxfId="4"/>
-    <tableColumn id="6" xr3:uid="{0A748EB2-A2E0-4461-9AB7-573CD7D4843D}" name="Desired ALU_x000a_Action" dataDxfId="0"/>
-    <tableColumn id="7" xr3:uid="{B7ED1F92-0D5A-4C1F-A889-A984282044BE}" name="ALUcontrol_x000a_Input" dataDxfId="3"/>
+    <tableColumn id="4" xr3:uid="{41AE9ADB-B78C-4F1D-837A-3E0A9181EA51}" name="Opcode" dataDxfId="4"/>
+    <tableColumn id="5" xr3:uid="{2AB80140-7D66-48FE-8612-E11F088FEB8D}" name="Function_x000a_Field" dataDxfId="3"/>
+    <tableColumn id="6" xr3:uid="{0A748EB2-A2E0-4461-9AB7-573CD7D4843D}" name="Desired ALU_x000a_Action" dataDxfId="2"/>
+    <tableColumn id="7" xr3:uid="{B7ED1F92-0D5A-4C1F-A889-A984282044BE}" name="ALUcontrol_x000a_Input" dataDxfId="1"/>
+    <tableColumn id="13" xr3:uid="{BAAA9A37-A6FE-4D97-8221-62227E71661F}" name="Column1" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleDark11" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -717,7 +742,7 @@
   <dimension ref="A1:L29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G15" sqref="G15"/>
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1079,27 +1104,29 @@
     <row r="10" spans="1:12" ht="15" thickTop="1" x14ac:dyDescent="0.3"/>
     <row r="12" spans="1:12" ht="28.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="B12" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="B12" s="3" t="s">
+      <c r="C12" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="E12" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="F12" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="G12" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="H12" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="C12" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="D12" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="E12" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="F12" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="G12" s="8" t="s">
-        <v>36</v>
-      </c>
-      <c r="H12" s="3"/>
       <c r="I12" s="3"/>
       <c r="J12" s="3"/>
       <c r="K12" s="3"/>
@@ -1107,25 +1134,25 @@
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A13" s="3" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B13" s="9" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D13" s="9" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="F13" s="9" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="G13" s="3" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="H13" s="3"/>
       <c r="I13" s="3"/>
@@ -1135,25 +1162,25 @@
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A14" s="3" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B14" s="9" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D14" s="9" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="F14" s="9" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="G14" s="3" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="H14" s="3"/>
       <c r="I14" s="3"/>
@@ -1163,25 +1190,25 @@
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A15" s="3" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B15" s="9" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D15" s="9" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="E15" s="3" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="F15" s="9" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="G15" s="3" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="H15" s="3"/>
       <c r="I15" s="3"/>
@@ -1191,27 +1218,29 @@
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A16" s="3" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B16" s="9" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C16" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="D16" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="E16" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="F16" s="9" t="s">
         <v>52</v>
       </c>
-      <c r="D16" s="9" t="s">
-        <v>58</v>
-      </c>
-      <c r="E16" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="F16" s="9" t="s">
-        <v>51</v>
-      </c>
       <c r="G16" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="H16" s="3"/>
+        <v>69</v>
+      </c>
+      <c r="H16" s="3" t="s">
+        <v>75</v>
+      </c>
       <c r="I16" s="3"/>
       <c r="J16" s="3"/>
       <c r="K16" s="3"/>
@@ -1219,27 +1248,29 @@
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A17" s="3" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B17" s="9" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D17" s="9" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="F17" s="9" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G17" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="H17" s="3"/>
+        <v>71</v>
+      </c>
+      <c r="H17" s="3" t="s">
+        <v>75</v>
+      </c>
       <c r="I17" s="3"/>
       <c r="J17" s="3"/>
       <c r="K17" s="3"/>
@@ -1247,27 +1278,29 @@
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A18" s="3" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B18" s="9" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D18" s="9" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="F18" s="9" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="G18" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="H18" s="3"/>
+        <v>70</v>
+      </c>
+      <c r="H18" s="3" t="s">
+        <v>75</v>
+      </c>
       <c r="I18" s="3"/>
       <c r="J18" s="3"/>
       <c r="K18" s="3"/>
@@ -1275,27 +1308,29 @@
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A19" s="3" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B19" s="9" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D19" s="9" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="F19" s="9" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="G19" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="H19" s="3"/>
+        <v>72</v>
+      </c>
+      <c r="H19" s="3" t="s">
+        <v>76</v>
+      </c>
       <c r="I19" s="3"/>
       <c r="J19" s="3"/>
       <c r="K19" s="3"/>
@@ -1303,27 +1338,29 @@
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A20" s="3" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B20" s="9" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D20" s="9" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="F20" s="9" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="G20" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="H20" s="3"/>
+        <v>73</v>
+      </c>
+      <c r="H20" s="3" t="s">
+        <v>75</v>
+      </c>
       <c r="I20" s="3"/>
       <c r="J20" s="3"/>
       <c r="K20" s="3"/>
@@ -1331,27 +1368,29 @@
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A21" s="3" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B21" s="9" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D21" s="9" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F21" s="9" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="G21" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="H21" s="3"/>
+        <v>74</v>
+      </c>
+      <c r="H21" s="3" t="s">
+        <v>75</v>
+      </c>
       <c r="I21" s="3"/>
       <c r="J21" s="3"/>
       <c r="K21" s="3"/>
@@ -1359,10 +1398,10 @@
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A22" s="3" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B22" s="9" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C22" s="3" t="s">
         <v>20</v>
@@ -1371,13 +1410,13 @@
         <v>18</v>
       </c>
       <c r="E22" s="3" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="F22" s="9" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="G22" s="3" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="H22" s="3"/>
       <c r="I22" s="3"/>
@@ -1387,10 +1426,10 @@
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A23" s="3" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B23" s="9" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C23" s="3" t="s">
         <v>22</v>
@@ -1399,13 +1438,13 @@
         <v>24</v>
       </c>
       <c r="E23" s="3" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="F23" s="9" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G23" s="3" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="H23" s="3"/>
       <c r="I23" s="3"/>
@@ -1415,10 +1454,10 @@
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A24" s="3" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B24" s="9" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C24" s="3" t="s">
         <v>23</v>
@@ -1427,13 +1466,13 @@
         <v>25</v>
       </c>
       <c r="E24" s="3" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="F24" s="9" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="G24" s="3" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="H24" s="3"/>
       <c r="I24" s="3"/>
@@ -1443,8 +1482,12 @@
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B25" s="9"/>
-      <c r="C25" s="3"/>
-      <c r="D25" s="9"/>
+      <c r="C25" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="D25" s="9" t="s">
+        <v>77</v>
+      </c>
       <c r="E25" s="3"/>
       <c r="F25" s="9"/>
       <c r="G25" s="3"/>
@@ -1456,9 +1499,15 @@
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B26" s="9"/>
-      <c r="C26" s="3"/>
-      <c r="D26" s="9"/>
-      <c r="E26" s="3"/>
+      <c r="C26" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="D26" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="E26" s="3" t="s">
+        <v>78</v>
+      </c>
       <c r="F26" s="9"/>
       <c r="G26" s="3"/>
       <c r="H26" s="3"/>
